--- a/data/trans_dic/Q45B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Estudios-trans_dic.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,36</t>
+          <t>0,26; 1,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,71</t>
+          <t>1,05; 2,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,08</t>
+          <t>0,51; 2,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,33</t>
+          <t>1,61; 3,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,65</t>
+          <t>1,68; 3,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,27</t>
+          <t>0,24; 1,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,2</t>
+          <t>1,14; 2,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,84</t>
+          <t>1,62; 2,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,29</t>
+          <t>0,42; 1,29</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,1</t>
+          <t>1,63; 3,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,37</t>
+          <t>1,93; 3,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,28</t>
+          <t>0,48; 1,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 12,29</t>
+          <t>9,26; 12,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,63; 10,35</t>
+          <t>7,54; 10,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,27</t>
+          <t>3,43; 5,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 7,23</t>
+          <t>5,5; 7,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 6,42</t>
+          <t>4,87; 6,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,05</t>
+          <t>2,09; 3,08</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,92</t>
+          <t>2,25; 5,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,26</t>
+          <t>2,17; 6,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,6</t>
+          <t>0,68; 2,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,36; 16,69</t>
+          <t>10,41; 16,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 19,92</t>
+          <t>12,42; 19,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,32</t>
+          <t>4,1; 8,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,66; 10,28</t>
+          <t>6,61; 10,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 11,94</t>
+          <t>7,89; 11,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 4,77</t>
+          <t>2,6; 4,85</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,51</t>
+          <t>1,58; 2,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,06</t>
+          <t>1,99; 3,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,31</t>
+          <t>0,68; 1,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,87</t>
+          <t>6,91; 8,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 8,44</t>
+          <t>6,61; 8,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,15</t>
+          <t>2,9; 4,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,43</t>
+          <t>4,44; 5,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 5,58</t>
+          <t>4,49; 5,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,6</t>
+          <t>1,93; 2,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q45B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,24</t>
+          <t>0,26; 1,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,72</t>
+          <t>1,1; 2,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,16</t>
+          <t>0,51; 1,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,32</t>
+          <t>1,58; 3,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,56</t>
+          <t>1,75; 3,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,28</t>
+          <t>0,22; 1,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,22</t>
+          <t>1,17; 2,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,84</t>
+          <t>1,64; 2,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,29</t>
+          <t>0,45; 1,31</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,13</t>
+          <t>1,65; 3,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,44</t>
+          <t>1,97; 3,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,32</t>
+          <t>0,45; 1,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,26; 12,39</t>
+          <t>9,38; 12,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 10,22</t>
+          <t>7,64; 10,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,15</t>
+          <t>3,49; 5,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,21</t>
+          <t>5,58; 7,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 6,45</t>
+          <t>4,92; 6,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,08</t>
+          <t>2,08; 3,07</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,83</t>
+          <t>2,32; 6,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,2</t>
+          <t>2,06; 6,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,94</t>
+          <t>0,68; 2,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,41; 16,74</t>
+          <t>10,45; 16,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,42; 19,57</t>
+          <t>12,92; 20,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,37</t>
+          <t>4,02; 8,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,04</t>
+          <t>6,59; 10,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 11,96</t>
+          <t>7,78; 12,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,85</t>
+          <t>2,58; 4,83</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,63</t>
+          <t>1,52; 2,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,11</t>
+          <t>2,01; 3,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,33</t>
+          <t>0,65; 1,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 8,72</t>
+          <t>6,92; 8,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 8,36</t>
+          <t>6,58; 8,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,14</t>
+          <t>2,98; 4,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 5,52</t>
+          <t>4,45; 5,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 5,56</t>
+          <t>4,5; 5,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,65</t>
+          <t>1,89; 2,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q45B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,34</t>
+          <t>0,28; 1,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,8</t>
+          <t>1,05; 2,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,96</t>
+          <t>0,52; 2,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,32</t>
+          <t>1,59; 3,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,55</t>
+          <t>1,77; 3,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,35</t>
+          <t>0,24; 1,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,25</t>
+          <t>1,12; 2,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,95</t>
+          <t>1,66; 2,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,31</t>
+          <t>0,45; 1,29</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,09</t>
+          <t>1,65; 3,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,37</t>
+          <t>1,9; 3,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,23</t>
+          <t>0,45; 1,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,38; 12,44</t>
+          <t>9,23; 12,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,64; 10,51</t>
+          <t>7,63; 10,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,25</t>
+          <t>3,46; 5,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 7,2</t>
+          <t>5,52; 7,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 6,38</t>
+          <t>4,82; 6,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,07</t>
+          <t>2,02; 3,05</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,12</t>
+          <t>2,23; 5,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,0</t>
+          <t>2,15; 6,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,64</t>
+          <t>0,68; 2,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,45; 16,95</t>
+          <t>10,36; 16,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,92; 20,14</t>
+          <t>12,84; 19,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,47</t>
+          <t>4,2; 8,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,16</t>
+          <t>6,66; 10,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 12,11</t>
+          <t>7,7; 11,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,83</t>
+          <t>2,63; 4,77</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,53</t>
+          <t>1,52; 2,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,13</t>
+          <t>1,99; 3,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,32</t>
+          <t>0,66; 1,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 8,78</t>
+          <t>6,94; 8,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 8,37</t>
+          <t>6,5; 8,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,14</t>
+          <t>2,94; 4,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 5,6</t>
+          <t>4,39; 5,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 5,62</t>
+          <t>4,52; 5,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,61</t>
+          <t>1,92; 2,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q45B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,36</t>
+          <t>0,28; 1,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,71</t>
+          <t>1,03; 2,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,08</t>
+          <t>0,51; 2,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,33</t>
+          <t>1,59; 3,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,65</t>
+          <t>1,74; 3,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,27</t>
+          <t>0,22; 1,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,2</t>
+          <t>1,14; 2,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,84</t>
+          <t>1,62; 2,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,29</t>
+          <t>0,45; 1,34</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,1</t>
+          <t>1,65; 3,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,37</t>
+          <t>1,93; 3,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,28</t>
+          <t>0,44; 1,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 12,29</t>
+          <t>9,39; 12,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,63; 10,35</t>
+          <t>7,64; 10,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,27</t>
+          <t>3,48; 5,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 7,23</t>
+          <t>5,53; 7,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 6,42</t>
+          <t>4,88; 6,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,05</t>
+          <t>2,06; 3,0</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,92</t>
+          <t>2,29; 5,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,26</t>
+          <t>2,05; 5,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,6</t>
+          <t>0,68; 2,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,36; 16,69</t>
+          <t>10,25; 16,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 19,92</t>
+          <t>12,73; 19,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,32</t>
+          <t>4,07; 8,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,66; 10,28</t>
+          <t>6,55; 10,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 11,94</t>
+          <t>7,93; 12,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 4,77</t>
+          <t>2,64; 4,79</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,51</t>
+          <t>1,51; 2,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,06</t>
+          <t>2,02; 3,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,31</t>
+          <t>0,65; 1,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,87</t>
+          <t>6,92; 8,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 8,44</t>
+          <t>6,49; 8,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,15</t>
+          <t>2,91; 4,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,43</t>
+          <t>4,39; 5,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 5,58</t>
+          <t>4,46; 5,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,6</t>
+          <t>1,87; 2,58</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6580</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16845</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7856</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30710</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33650</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6105</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37291</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>50494</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13961</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2895; 13678</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9984; 26874</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3843; 15625</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>20946; 43173</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23194; 46647</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2203; 13191</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>26729; 50538</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>37276; 67559</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7889; 23376</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>38296</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>50944</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16444</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>169568</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>156145</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>84896</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>207865</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>207089</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>101340</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>27948; 53376</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>37690; 67186</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9122; 26058</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>149085; 196155</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>133674; 180766</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>68807; 105469</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>181306; 236428</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>181039; 238504</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>83261; 121352</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20818</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17512</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>63653</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>73303</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31859</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>84471</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>90816</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>39454</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12632; 32740</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9797; 28511</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3695; 14224</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>48822; 79712</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>58122; 90453</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22362; 44661</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>67362; 104371</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>74248; 114071</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28924; 52403</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>65695</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>85301</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31896</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>263932</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>263098</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>122860</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>329626</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>348399</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>154756</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>49328; 82988</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>68733; 106052</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21863; 45075</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>233817; 295437</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>229681; 296346</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>102245; 144785</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>292503; 368021</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>310144; 386748</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>128610; 177568</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>